--- a/ExitTestFlipkart/TestDataSheet/TestData.xlsx
+++ b/ExitTestFlipkart/TestDataSheet/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srishtijain\eclipse-workspace\ExitTestFlipkart\TestDataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srishtijain\git\FlipkartTestCases\ExitTestFlipkart\TestDataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9968BFC-C4E3-425D-B401-A292EBF0CFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5580A1-4581-4582-B48B-7B9D4437FFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F50DEF8-8777-4D2A-9779-5264E9924AE5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{5F50DEF8-8777-4D2A-9779-5264E9924AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductPageTests" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Book- Buy Products Online at Best Price in India - All Categories | Flipkart.com</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -583,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE277F9-D0B0-4328-819D-99573FA8DB12}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -926,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187D2F3F-FB3A-444F-83D5-3D19AC81D169}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -956,7 +959,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
